--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1523040.335407077</v>
+        <v>-1525699.68837909</v>
       </c>
     </row>
     <row r="7">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>380.0729788471836</v>
+        <v>323.8388427438204</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>160.6412123354101</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>1.781160222249216</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -871,7 +871,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>216.8589086180289</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>128.2328926179707</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>2.264474711070745</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42.82971674578484</v>
+        <v>71.63950530374154</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>199.1961742994382</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,19 +1184,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>200.4331707528099</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>83.60936732443565</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>74.75769145492379</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1421,7 +1421,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>126.9263824507466</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>71.60395572453992</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>1.508245380440106e-12</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722627</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>98.79136808967668</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>38.61213096654735</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>65.25773758188275</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E25" t="n">
-        <v>125.9491534982824</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I28" t="n">
-        <v>25.52471385612599</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652614</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352489</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3193,19 +3193,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002298</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541845</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652588</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>919.1134386060701</v>
+        <v>409.5124851747536</v>
       </c>
       <c r="C2" t="n">
-        <v>919.1134386060701</v>
+        <v>409.5124851747536</v>
       </c>
       <c r="D2" t="n">
-        <v>919.1134386060701</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E2" t="n">
-        <v>533.3251860078258</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078258</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.894479532451</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.894479532451</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W2" t="n">
-        <v>2066.630628688602</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X2" t="n">
-        <v>1693.164870427522</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="Y2" t="n">
-        <v>1303.02553845171</v>
+        <v>736.6224273402288</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>551.2876347907472</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>845.991191822219</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>1209.253210781439</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560477</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4486,52 +4486,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234359</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1216.838891429094</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>997.7894887846204</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V4" t="n">
-        <v>743.1050005787336</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W4" t="n">
-        <v>453.6878305417729</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="X4" t="n">
-        <v>453.6878305417729</v>
+        <v>53.04593830764878</v>
       </c>
       <c r="Y4" t="n">
-        <v>232.8952513982428</v>
+        <v>53.04593830764878</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1346.511635257853</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="C5" t="n">
-        <v>977.5491183174415</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="D5" t="n">
-        <v>977.5491183174415</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E5" t="n">
-        <v>591.7608657191972</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F5" t="n">
-        <v>180.7749609295897</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4595,22 +4595,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.577233583055</v>
+        <v>1973.026070603629</v>
       </c>
       <c r="W5" t="n">
-        <v>2106.577233583055</v>
+        <v>1620.257415333515</v>
       </c>
       <c r="X5" t="n">
-        <v>1733.111475321975</v>
+        <v>1620.257415333515</v>
       </c>
       <c r="Y5" t="n">
-        <v>1733.111475321975</v>
+        <v>1230.118083357703</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>507.2413987429752</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>801.944955774447</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733667</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330612</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506774</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>498.0154176992257</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="C7" t="n">
-        <v>498.0154176992257</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="D7" t="n">
-        <v>347.89877828689</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="E7" t="n">
-        <v>199.9856847044969</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F7" t="n">
-        <v>199.9856847044969</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1533.86271359008</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1244.744376093917</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V7" t="n">
-        <v>990.0598878880306</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="W7" t="n">
-        <v>990.0598878880306</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="X7" t="n">
-        <v>762.0703369900133</v>
+        <v>597.1475965504962</v>
       </c>
       <c r="Y7" t="n">
-        <v>541.2777578464832</v>
+        <v>376.3550174069661</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1879.82957821044</v>
+        <v>1178.820931986406</v>
       </c>
       <c r="C8" t="n">
-        <v>1879.82957821044</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="D8" t="n">
-        <v>1521.563879603689</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>1135.775627005445</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>724.7897222158376</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>309.7172720608341</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>3012.857404901105</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520488</v>
+        <v>2681.794517557534</v>
       </c>
       <c r="W8" t="n">
-        <v>2656.568750250373</v>
+        <v>2329.02586228742</v>
       </c>
       <c r="X8" t="n">
-        <v>2656.568750250373</v>
+        <v>1955.56010402634</v>
       </c>
       <c r="Y8" t="n">
-        <v>2266.429418274562</v>
+        <v>1565.420772050528</v>
       </c>
     </row>
     <row r="9">
@@ -4872,13 +4872,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228006</v>
@@ -4887,7 +4887,7 @@
         <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>759.689087308229</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C10" t="n">
-        <v>675.2351809199101</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4993,19 +4993,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036486</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1169.327103036486</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>941.3375521384687</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y10" t="n">
-        <v>941.3375521384687</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="11">
@@ -5033,40 +5033,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5075,10 +5075,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803938</v>
@@ -5127,19 +5127,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400758</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400758</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>363.73696132774</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S13" t="n">
-        <v>2307.590151828078</v>
+        <v>2197.062545487572</v>
       </c>
       <c r="T13" t="n">
-        <v>2307.590151828078</v>
+        <v>1977.461080510513</v>
       </c>
       <c r="U13" t="n">
-        <v>2018.514925172276</v>
+        <v>1688.385853854711</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648824</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138456</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703155</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5255,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239596</v>
+        <v>372.4964262156759</v>
       </c>
       <c r="L15" t="n">
-        <v>924.8344286397182</v>
+        <v>867.8220324314346</v>
       </c>
       <c r="M15" t="n">
-        <v>1522.21291626627</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1031.260321675049</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>862.3241387471426</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>712.2074993348068</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>564.2944057524137</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F16" t="n">
-        <v>417.4044582545033</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1433.701365648819</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1212.908786505289</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5501,22 +5501,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,7 +5525,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>594.8179559048574</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>446.9048623224643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F19" t="n">
-        <v>300.0149148245539</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G19" t="n">
-        <v>132.8188155394338</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>132.8188155394338</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,7 +5768,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5829,22 +5829,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1026.887310050512</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>1654.485273605118</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2206.395003844405</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,40 +5969,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>741.8431516380886</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>591.7265122257528</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6218,7 +6218,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192548</v>
@@ -6227,25 +6227,25 @@
         <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>414.4022433768874</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>266.4891497944943</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>119.599202296584</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>119.599202296584</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>119.599202296584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6443,7 +6443,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6452,31 +6452,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,28 +6540,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2223.769289033212</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6652,10 +6652,10 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6686,40 +6686,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6783,16 +6783,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6926,28 +6926,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7017,22 +7017,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1465.200520057987</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>2092.798483612594</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7114,16 +7114,16 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838286</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,7 +7169,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.192580311172</v>
@@ -7251,28 +7251,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
-        <v>924.8344286397182</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1552.432392194325</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656823</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345478</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7351,7 +7351,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931274</v>
@@ -7363,13 +7363,13 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
         <v>1280.33868158239</v>
@@ -7397,16 +7397,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397182</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>1522.21291626627</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345471</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7591,28 +7591,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150018</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942649</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,28 +7828,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>255.5240487471575</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,10 +8067,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>265.0304328515151</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>211.0329012241554</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,16 +8307,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>30.36925650589473</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.660862816296997</v>
+        <v>58.89499891966017</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>402.7664347977598</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,10 +22601,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>178.0508199596881</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22717,10 +22717,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>19.5075801958226</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,16 +23464,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>109.4223302771047</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>66.73277020259216</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>42.65370535201819</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>221.2652607547083</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E25" t="n">
-        <v>20.48480914828673</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I28" t="n">
-        <v>55.74112246243955</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>116044.8438455268</v>
+        <v>116044.8438455267</v>
       </c>
       <c r="C2" t="n">
         <v>143682.3097262496</v>
@@ -26323,7 +26323,7 @@
         <v>141250.6549457511</v>
       </c>
       <c r="F2" t="n">
-        <v>141250.6549457512</v>
+        <v>141250.6549457511</v>
       </c>
       <c r="G2" t="n">
         <v>141250.6549457511</v>
@@ -26353,7 +26353,7 @@
         <v>143682.3097262496</v>
       </c>
       <c r="P2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403378</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073553</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6.536993168992922e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099824</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>48293.97000819077</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551184</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>45381.8193949511</v>
+        <v>45381.81939495102</v>
       </c>
       <c r="C4" t="n">
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309558</v>
+        <v>87914.29116309555</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744297</v>
+        <v>8727.256391744242</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="H4" t="n">
+        <v>8727.256391744308</v>
+      </c>
+      <c r="I4" t="n">
         <v>8727.256391744284</v>
       </c>
-      <c r="I4" t="n">
-        <v>8727.256391744308</v>
-      </c>
       <c r="J4" t="n">
-        <v>8727.256391744324</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="K4" t="n">
-        <v>16718.11565483777</v>
+        <v>16718.11565483775</v>
       </c>
       <c r="L4" t="n">
         <v>16718.11565483775</v>
       </c>
       <c r="M4" t="n">
-        <v>16718.11565483778</v>
+        <v>16718.11565483775</v>
       </c>
       <c r="N4" t="n">
-        <v>16718.11565483773</v>
+        <v>16718.11565483775</v>
       </c>
       <c r="O4" t="n">
-        <v>16718.11565483775</v>
+        <v>16718.11565483774</v>
       </c>
       <c r="P4" t="n">
         <v>16718.11565483775</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1137026.531565189</v>
+        <v>-1137421.352506342</v>
       </c>
       <c r="C6" t="n">
-        <v>-84777.59969057821</v>
+        <v>-84777.59969057824</v>
       </c>
       <c r="D6" t="n">
-        <v>-244793.062438577</v>
+        <v>-244793.0624385773</v>
       </c>
       <c r="E6" t="n">
-        <v>-294011.5930772556</v>
+        <v>-294046.3310026914</v>
       </c>
       <c r="F6" t="n">
-        <v>31400.86873009974</v>
+        <v>31366.13080466403</v>
       </c>
       <c r="G6" t="n">
-        <v>31400.86873009974</v>
+        <v>31366.13080466399</v>
       </c>
       <c r="H6" t="n">
-        <v>31400.86873009971</v>
+        <v>31366.13080466399</v>
       </c>
       <c r="I6" t="n">
-        <v>31400.86873009958</v>
+        <v>31366.13080466402</v>
       </c>
       <c r="J6" t="n">
-        <v>-136204.3090798828</v>
+        <v>-136239.0470053186</v>
       </c>
       <c r="K6" t="n">
-        <v>4372.360223864613</v>
+        <v>4372.360223864714</v>
       </c>
       <c r="L6" t="n">
-        <v>-24493.89179069427</v>
+        <v>-24493.8917906943</v>
       </c>
       <c r="M6" t="n">
-        <v>-61254.94971801544</v>
+        <v>-61254.94971801536</v>
       </c>
       <c r="N6" t="n">
-        <v>23800.07821749653</v>
+        <v>23800.07821749651</v>
       </c>
       <c r="O6" t="n">
         <v>23800.07821749648</v>
       </c>
       <c r="P6" t="n">
-        <v>4372.360223864656</v>
+        <v>4372.3602238647</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>8.171241461241152e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203965</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26790,16 +26790,16 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26926,13 +26926,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>8.171241461241152e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483757</v>
@@ -27015,7 +27015,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
         <v>341.3068326973557</v>
@@ -27033,13 +27033,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973557</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.171241461241152e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -27261,7 +27261,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973557</v>
@@ -27379,16 +27379,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.109610943951623</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>188.5997563820029</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27549,7 +27549,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27591,7 +27591,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>69.36824550317175</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>283.3148101549833</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>325.4877837590641</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>137.0022634361524</v>
+        <v>108.1924748781958</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,16 +27822,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>95.41159008788225</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>50.56200120609211</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>83.63745377419218</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>70.66335656800746</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28065,19 +28065,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28287,7 +28287,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -28305,7 +28305,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29047,7 +29047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31847,22 +31847,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>266.3926848685833</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>744.7005224868051</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>156.3072281639545</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32549,7 +32549,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32561,13 +32561,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>211.5147800288493</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>667.8124403339918</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>198.560797075695</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>595.327537312171</v>
+        <v>754.0002396832324</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33260,31 +33260,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>230.9747494877451</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33442,7 +33442,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33503,19 +33503,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>671.9287955253226</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33737,25 +33737,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>536.8001439125376</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>463.4318227833011</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,13 +33971,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>577.7447198439388</v>
       </c>
       <c r="M39" t="n">
         <v>142.1340339220183</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>489.8124929257571</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,22 +34205,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>187.2159464875253</v>
+        <v>705.9257335045849</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34229,10 +34229,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,31 +34442,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>336.3457189021236</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>442.1115449906423</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>600.455114847638</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>397.6203974676403</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>365.7939385020177</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35495,22 +35495,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35583,7 +35583,7 @@
         <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066292</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>128.5512458942243</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>613.3588104034718</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>22.33282074962425</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36197,7 +36197,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36209,13 +36209,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>77.5403726145191</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,22 +36443,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>525.6784064119735</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>55.96455263125056</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9858252288377</v>
+        <v>622.6585275998991</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36908,31 +36908,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>97.00034207341486</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
         <v>418.6266618111712</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,19 +37151,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>529.7947616033043</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37227,7 +37227,7 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
         <v>418.6266618111712</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37385,25 +37385,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>394.6661099905193</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37619,13 +37619,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>347.2162484813126</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37716,7 +37716,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
         <v>144.686904791938</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,22 +37853,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>55.87423440419198</v>
+        <v>574.5840214212516</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37877,10 +37877,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,31 +38090,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>205.0040068187903</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
